--- a/Requirements/TMS.xlsx
+++ b/Requirements/TMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThisPc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{634519F3-4756-4A2A-A523-BD25198657E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA946A52-ABCB-402D-BA9F-DF7914D3AE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="220">
   <si>
     <t>Training Management System</t>
   </si>
@@ -1198,6 +1198,54 @@
   </si>
   <si>
     <t>Identifing Entity model flaws</t>
+  </si>
+  <si>
+    <t>To build  HLD document and to clarify what all in HLD document</t>
+  </si>
+  <si>
+    <t>Timesheet is mirror for your career</t>
+  </si>
+  <si>
+    <t>What should be done tomorrow</t>
+  </si>
+  <si>
+    <t>WebApi for one service and class operation</t>
+  </si>
+  <si>
+    <t>Database diagram</t>
+  </si>
+  <si>
+    <t>Layout with sample data</t>
+  </si>
+  <si>
+    <t>Listout NFR based on Dependices on user stories</t>
+  </si>
+  <si>
+    <t>Manage Audit fields in database table creation</t>
+  </si>
+  <si>
+    <t>Make sure reusing the services don't create new service to view model</t>
+  </si>
+  <si>
+    <t>In class diagram Coures,Topic,Assignment should combine as a service</t>
+  </si>
+  <si>
+    <t>Review is a individual service</t>
+  </si>
+  <si>
+    <t>Department is a individual service</t>
+  </si>
+  <si>
+    <t>Role is a individual service</t>
+  </si>
+  <si>
+    <t>User is a individual service</t>
+  </si>
+  <si>
+    <t>Responsiveness is one of the NFR</t>
+  </si>
+  <si>
+    <t>Understand before using it in System</t>
   </si>
 </sst>
 </file>
@@ -2009,15 +2057,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151059</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>150001</xdr:rowOff>
+      <xdr:colOff>55809</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>130951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>328085</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>129033</xdr:rowOff>
+      <xdr:colOff>232835</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>109983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2025,6 +2073,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,8 +2097,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="151059" y="15771001"/>
-          <a:ext cx="19205859" cy="10456532"/>
+          <a:off x="55809" y="16323451"/>
+          <a:ext cx="19074626" cy="10456532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2371,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10008,7 +10059,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10034,10 +10085,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1CE5F0-FEB5-4D7E-9CC2-3D79C66A2795}">
-  <dimension ref="A2:J102"/>
+  <dimension ref="A2:J136"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10436,19 +10487,130 @@
         <v>203</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="1:2">
       <c r="B98" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="1:2">
       <c r="B100" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="1:2">
       <c r="B102" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="39">
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="18.75">
+      <c r="A108" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="18.75">
+      <c r="A111" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="C118" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="C119" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="C120" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements/TMS.xlsx
+++ b/Requirements/TMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThisPc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6362A348-D5EA-464F-946E-D2389E614005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0D7D0BB-683B-4DEF-8DA1-D8C81E11AFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="251">
   <si>
     <t>Training Management System</t>
   </si>
@@ -1011,7 +1011,7 @@
     <t>Timesheet</t>
   </si>
   <si>
-    <t>https://1drv.ms/x/s!ApsQTlKTw2t1gRhiTM9GiIMuoWIL?e=ahmUUs</t>
+    <t>https://1drv.ms/x/s!ApsQTlKTw2t1gh1JCREJAUtwMXoE?e=zPhRdD</t>
   </si>
   <si>
     <t>https://www.figma.com/file/5LtesCL0bdF2ZM1KSsx5QI/TMS?node-id=0%3A1</t>
@@ -1291,6 +1291,54 @@
   </si>
   <si>
     <t>AssignRoleToUser() and AssignDepartmentToUser not needed</t>
+  </si>
+  <si>
+    <t>To review HLD document and Services operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>change Service layer as  Web Api or Proxy layer otherwise remove it</t>
+  </si>
+  <si>
+    <t>Data store iss not a layer</t>
+  </si>
+  <si>
+    <t>Remove technical diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add edit in system </t>
+  </si>
+  <si>
+    <t>In Database diagram</t>
+  </si>
+  <si>
+    <t>In data model add audit fields</t>
+  </si>
+  <si>
+    <t>IsActive field in every to check disable status of entity</t>
+  </si>
+  <si>
+    <t>To get individual role method in Role</t>
+  </si>
+  <si>
+    <t>In all edit method pass the object</t>
+  </si>
+  <si>
+    <t>Change GetUserbyDept() and GetCoursebyDept() in respective service</t>
+  </si>
+  <si>
+    <t>Naming should be better</t>
+  </si>
+  <si>
+    <t>To do a class file for all services put it in a TMS namespace</t>
   </si>
 </sst>
 </file>
@@ -2059,8 +2107,8 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>41652</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>165477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3785,7 +3833,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{0F8DB585-F543-45CB-AA1D-2750D08148C1}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{466765D5-0A08-4E90-9A0F-66FD3D3F74F2}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{80D15FED-BBC9-4992-BC03-B4DA36545335}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3795,7 +3843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH175"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J30" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AS78" sqref="AS78"/>
     </sheetView>
   </sheetViews>
@@ -5061,7 +5109,7 @@
       <c r="AG35" s="42"/>
       <c r="AH35" s="42"/>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:34" ht="65.25" customHeight="1">
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -10141,10 +10189,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1CE5F0-FEB5-4D7E-9CC2-3D79C66A2795}">
-  <dimension ref="A2:J169"/>
+  <dimension ref="A2:J199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10750,29 +10798,151 @@
         <v>231</v>
       </c>
     </row>
-    <row r="161" spans="2:3">
+    <row r="161" spans="1:3">
       <c r="B161" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="162" spans="2:3">
+    <row r="162" spans="1:3">
       <c r="C162" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="163" spans="2:3">
+    <row r="163" spans="1:3">
       <c r="C163" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="167" spans="2:3">
+    <row r="167" spans="1:3">
       <c r="B167" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="169" spans="2:3">
+    <row r="169" spans="1:3">
       <c r="B169" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B172" s="39">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B173" s="40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="18.75">
+      <c r="A175" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="18.75">
+      <c r="A178" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B178" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="B179" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="B180" t="s">
+        <v>207</v>
+      </c>
+      <c r="C180" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="B182" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="B184" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="C185" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="C186" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="C187" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="C188" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="B190" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="C191" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="C192" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="B194" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="C195" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="C196" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="C197" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="C198" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="C199" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
